--- a/PREGAME/1.ELICITACIÓN/1.3 Historias de Usuario/G3_Historias_De_Usuario_V2.0.xlsx
+++ b/PREGAME/1.ELICITACIÓN/1.3 Historias de Usuario/G3_Historias_De_Usuario_V2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronny\OneDrive\Documents\Sexto Semestre\Analisis y diseño\Primer Parcial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronny\OneDrive\Documents\Repositorio Analisis\_23305_G3_ADS\PREGAME\1.ELICITACIÓN\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193292DD-3BB7-4581-849A-EBBB5F3D7419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B37DAD-1606-4DDB-87C2-F02E0B3BC182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -853,53 +853,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,6 +896,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1284,8 +1284,8 @@
   </sheetPr>
   <dimension ref="B1:P991"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1313,22 +1313,22 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H4" s="4"/>
@@ -1382,22 +1382,22 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="39" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1411,16 +1411,16 @@
         <v>15</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="69" t="s">
+      <c r="N6" s="43"/>
+      <c r="O6" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="38" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1432,13 +1432,13 @@
       <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="40" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="7">
@@ -1449,34 +1449,34 @@
         <v>15</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="71"/>
-      <c r="O7" s="69" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="42" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="48" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="24">
@@ -1490,13 +1490,13 @@
       <c r="M8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="38" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1511,10 +1511,10 @@
       <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="7">
@@ -1525,16 +1525,16 @@
         <v>15</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="71"/>
-      <c r="O9" s="67" t="s">
+      <c r="N9" s="44"/>
+      <c r="O9" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -1566,13 +1566,13 @@
       <c r="M10" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="77"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -1604,7 +1604,7 @@
       <c r="M11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="79"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="36" t="s">
         <v>73</v>
       </c>
@@ -7534,7 +7534,7 @@
   </sheetPr>
   <dimension ref="B2:P1020"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7562,23 +7562,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12"/>
@@ -7618,15 +7618,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -7641,17 +7641,17 @@
         <v>74</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="57" t="str">
+      <c r="E10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,5,0)</f>
         <v>Administrador</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="57">
+      <c r="H10" s="74">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,11,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="18"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -7683,15 +7683,15 @@
         <v>24</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="18"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -7707,17 +7707,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="57" t="str">
+      <c r="E13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="57" t="str">
+      <c r="H13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,7,0)</f>
         <v>Carlos</v>
       </c>
-      <c r="I13" s="55"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="18"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -7745,68 +7745,68 @@
     </row>
     <row r="15" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="58" t="str">
+      <c r="D15" s="79" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,3,0)</f>
         <v>Registrar productos en el inventario.</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="58" t="str">
+      <c r="H15" s="79" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,4,0)</f>
         <v>Para mantener niveles de stock actualizados y evitar errores.</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="44"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="50" t="str">
+      <c r="M15" s="58" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,6,0)</f>
         <v xml:space="preserve">	Ingresar productos, actualizar cantidades, eliminar registros, consultar estado de stock.</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="44"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="31"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="49"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="49"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="31"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="46"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="46"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
       <c r="P17" s="31"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7828,41 +7828,41 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="59" t="str">
+      <c r="D19" s="60"/>
+      <c r="E19" s="66" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,14,0)</f>
         <v>Gestión de Inventario</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="31"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="31"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7884,63 +7884,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30"/>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="50" t="str">
+      <c r="D22" s="60"/>
+      <c r="E22" s="58" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,12,0)</f>
         <v xml:space="preserve">	El sistema permite registrar, modificar y eliminar productos, y consultar el inventario correctamente.</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="44"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="50">
+      <c r="K22" s="60"/>
+      <c r="L22" s="58">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="44"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="60"/>
       <c r="P22" s="31"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="49"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="62"/>
       <c r="P23" s="31"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="46"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="46"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="31"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8957,11 +8957,6 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -8978,6 +8973,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
